--- a/src/test/res/disegno-pruebas-secuencias-collatz.xlsx
+++ b/src/test/res/disegno-pruebas-secuencias-collatz.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\Docencia\Verificación y Validación\teoria\02_Testing\02c-testing-herramientas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Latre\Documents\Trabajo\Docencia\VV\IdeaProjects\unizar-vv-collatz-solucion-junit5\src\test\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11112" windowHeight="7932"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11115" windowHeight="7935" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Diseño pruebas siguienteCollatz" sheetId="2" r:id="rId1"/>
@@ -770,22 +770,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
@@ -881,15 +866,9 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="31" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="32" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="33" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -903,9 +882,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="38" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
@@ -957,8 +933,32 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="33" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="31" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="38" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1076,13 +1076,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>144780</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
@@ -1428,70 +1428,72 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:L23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1"/>
-    <col min="9" max="9" width="3.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="3.7109375" customWidth="1"/>
     <col min="10" max="10" width="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B2" s="14" t="s">
+    <row r="2" spans="2:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B2" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="73" t="s">
+    <row r="5" spans="2:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="I5" s="73" t="s">
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="I5" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
-      <c r="L5" s="73"/>
-    </row>
-    <row r="6" spans="2:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+    </row>
+    <row r="6" spans="2:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="I7" s="21" t="s">
+      <c r="C7" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="67"/>
+      <c r="E7" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="68"/>
+      <c r="I7" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="22" t="s">
+      <c r="J7" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="22" t="s">
+      <c r="K7" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="23" t="s">
+      <c r="L7" s="18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="8" t="s">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="69" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="2">
@@ -1503,194 +1505,194 @@
       <c r="E8" s="3">
         <v>3</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="24" t="s">
+      <c r="I8" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="25">
+      <c r="J8" s="20">
         <v>40</v>
       </c>
-      <c r="K8" s="25">
+      <c r="K8" s="20">
         <v>20</v>
       </c>
-      <c r="L8" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="10"/>
-      <c r="C9" s="11">
-        <v>2</v>
-      </c>
-      <c r="D9" s="11" t="s">
+      <c r="L8" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="70"/>
+      <c r="C9" s="6">
+        <v>2</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
-      <c r="I9" s="27" t="s">
+      <c r="E9" s="7"/>
+      <c r="F9" s="8"/>
+      <c r="I9" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="28">
+      <c r="J9" s="23">
         <v>13</v>
       </c>
-      <c r="K9" s="28">
+      <c r="K9" s="23">
         <v>40</v>
       </c>
-      <c r="L9" s="29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="15"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="I11" s="31" t="s">
+      <c r="L9" s="24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I11" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="32">
+      <c r="J11" s="27">
         <v>20</v>
       </c>
-      <c r="K11" s="32">
+      <c r="K11" s="27">
         <v>10</v>
       </c>
-      <c r="L11" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="I12" s="24" t="s">
+      <c r="L11" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I12" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="J12" s="25">
+      <c r="J12" s="20">
         <f>K11</f>
         <v>10</v>
       </c>
-      <c r="K12" s="25">
+      <c r="K12" s="20">
         <v>5</v>
       </c>
-      <c r="L12" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="I13" s="24" t="s">
+      <c r="L12" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I13" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="J13" s="25">
+      <c r="J13" s="20">
         <f t="shared" ref="J13:J17" si="0">K12</f>
         <v>5</v>
       </c>
-      <c r="K13" s="25">
+      <c r="K13" s="20">
         <v>16</v>
       </c>
-      <c r="L13" s="34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="I14" s="24" t="s">
+      <c r="L13" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I14" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="J14" s="25">
+      <c r="J14" s="20">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="K14" s="25">
+      <c r="K14" s="20">
         <v>8</v>
       </c>
-      <c r="L14" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="I15" s="24" t="s">
+      <c r="L14" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I15" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="25">
+      <c r="J15" s="20">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="K15" s="25">
-        <v>4</v>
-      </c>
-      <c r="L15" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="I16" s="24" t="s">
+      <c r="K15" s="20">
+        <v>4</v>
+      </c>
+      <c r="L15" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="I16" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="J16" s="25">
+      <c r="J16" s="20">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="K16" s="25">
-        <v>2</v>
-      </c>
-      <c r="L16" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="9:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I17" s="27" t="s">
+      <c r="K16" s="20">
+        <v>2</v>
+      </c>
+      <c r="L16" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="9:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I17" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="J17" s="28">
+      <c r="J17" s="23">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K17" s="28">
-        <v>1</v>
-      </c>
-      <c r="L17" s="35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="9:12" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I20" s="73" t="s">
+      <c r="K17" s="23">
+        <v>1</v>
+      </c>
+      <c r="L17" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="9:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I20" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="J20" s="73"/>
-      <c r="K20" s="73"/>
-      <c r="L20" s="73"/>
-    </row>
-    <row r="21" spans="9:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="22" spans="9:12" x14ac:dyDescent="0.3">
-      <c r="I22" s="21" t="s">
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
+    </row>
+    <row r="21" spans="9:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I22" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="22" t="s">
+      <c r="J22" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="22" t="s">
+      <c r="K22" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L22" s="23" t="s">
+      <c r="L22" s="18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="9:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I23" s="17" t="s">
+    <row r="23" spans="9:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I23" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="J23" s="37">
+      <c r="J23" s="32">
         <v>0</v>
       </c>
-      <c r="K23" s="36" t="s">
+      <c r="K23" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="L23" s="38">
+      <c r="L23" s="33">
         <v>3</v>
       </c>
     </row>
@@ -1711,289 +1713,289 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M24"/>
+  <dimension ref="B2:K24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:K24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1"/>
-    <col min="9" max="9" width="3.5546875" customWidth="1"/>
-    <col min="10" max="10" width="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="3.5703125" customWidth="1"/>
+    <col min="9" max="9" width="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B2" s="14" t="s">
+    <row r="2" spans="2:11" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B2" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="73" t="s">
+    <row r="5" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="I5" s="73" t="s">
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="H5" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
-      <c r="L5" s="73"/>
-      <c r="M5" s="73"/>
-    </row>
-    <row r="6" spans="2:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+    </row>
+    <row r="6" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="I7" s="39" t="s">
+      <c r="C7" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="67"/>
+      <c r="E7" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="68"/>
+      <c r="H7" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="40" t="s">
+      <c r="I7" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="40" t="s">
+      <c r="J7" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="41" t="s">
+      <c r="K7" s="36" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="17" t="s">
+    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="18">
-        <v>1</v>
-      </c>
-      <c r="D8" s="18" t="s">
+      <c r="C8" s="13">
+        <v>1</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="19">
-        <v>2</v>
-      </c>
-      <c r="F8" s="20" t="s">
+      <c r="E8" s="14">
+        <v>2</v>
+      </c>
+      <c r="F8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="I8" s="27" t="s">
+      <c r="H8" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="28">
+      <c r="I8" s="23">
         <v>13</v>
       </c>
-      <c r="K8" s="28">
+      <c r="J8" s="23">
         <v>10</v>
       </c>
-      <c r="L8" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="I10" s="31" t="s">
+      <c r="K8" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H10" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="J10" s="32">
+      <c r="I10" s="27">
         <v>40</v>
       </c>
-      <c r="K10" s="32">
+      <c r="J10" s="27">
         <v>9</v>
       </c>
-      <c r="L10" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="I11" s="24" t="s">
+      <c r="K10" s="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H11" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="25">
+      <c r="I11" s="20">
         <v>20</v>
       </c>
-      <c r="K11" s="25">
+      <c r="J11" s="20">
         <v>8</v>
       </c>
-      <c r="L11" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="I12" s="24" t="s">
+      <c r="K11" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H12" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="J12" s="25">
+      <c r="I12" s="20">
         <v>10</v>
       </c>
-      <c r="K12" s="25">
+      <c r="J12" s="20">
         <v>7</v>
       </c>
-      <c r="L12" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="I13" s="24" t="s">
+      <c r="K12" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H13" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="J13" s="25">
+      <c r="I13" s="20">
         <v>5</v>
       </c>
-      <c r="K13" s="25">
+      <c r="J13" s="20">
         <v>6</v>
       </c>
-      <c r="L13" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="I14" s="24" t="s">
+      <c r="K13" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H14" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="J14" s="25">
+      <c r="I14" s="20">
         <v>16</v>
       </c>
-      <c r="K14" s="25">
+      <c r="J14" s="20">
         <v>5</v>
       </c>
-      <c r="L14" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="I15" s="24" t="s">
+      <c r="K14" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H15" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="25">
+      <c r="I15" s="20">
         <v>8</v>
       </c>
-      <c r="K15" s="25">
-        <v>4</v>
-      </c>
-      <c r="L15" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="I16" s="24" t="s">
+      <c r="J15" s="20">
+        <v>4</v>
+      </c>
+      <c r="K15" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="H16" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="J16" s="25">
-        <v>4</v>
-      </c>
-      <c r="K16" s="25">
+      <c r="I16" s="20">
+        <v>4</v>
+      </c>
+      <c r="J16" s="20">
         <v>3</v>
       </c>
-      <c r="L16" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="9:13" x14ac:dyDescent="0.3">
-      <c r="I17" s="24" t="s">
+      <c r="K16" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H17" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="J17" s="25">
-        <v>2</v>
-      </c>
-      <c r="K17" s="25">
-        <v>2</v>
-      </c>
-      <c r="L17" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="9:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I18" s="27" t="s">
+      <c r="I17" s="20">
+        <v>2</v>
+      </c>
+      <c r="J17" s="20">
+        <v>2</v>
+      </c>
+      <c r="K17" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="8:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H18" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="J18" s="28">
-        <v>1</v>
-      </c>
-      <c r="K18" s="28">
-        <v>1</v>
-      </c>
-      <c r="L18" s="35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I18" s="23">
+        <v>1</v>
+      </c>
+      <c r="J18" s="23">
+        <v>1</v>
+      </c>
+      <c r="K18" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-    </row>
-    <row r="20" spans="9:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-    </row>
-    <row r="21" spans="9:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I21" s="74" t="s">
+    </row>
+    <row r="21" spans="8:11" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H21" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="J21" s="74"/>
-      <c r="K21" s="74"/>
-      <c r="L21" s="74"/>
-      <c r="M21" s="74"/>
-    </row>
-    <row r="22" spans="9:13" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I21" s="71"/>
+      <c r="J21" s="71"/>
+      <c r="K21" s="71"/>
+    </row>
+    <row r="22" spans="8:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-    </row>
-    <row r="23" spans="9:13" x14ac:dyDescent="0.3">
-      <c r="I23" s="39" t="s">
+    </row>
+    <row r="23" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H23" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="J23" s="40" t="s">
+      <c r="I23" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="40" t="s">
+      <c r="J23" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="L23" s="41" t="s">
+      <c r="K23" s="36" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="9:13" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I24" s="42" t="s">
+    <row r="24" spans="8:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H24" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="J24" s="43">
+      <c r="I24" s="38">
         <v>0</v>
       </c>
-      <c r="K24" s="44" t="s">
+      <c r="J24" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="L24" s="45">
+      <c r="K24" s="40">
         <v>2</v>
       </c>
     </row>
@@ -2002,8 +2004,8 @@
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:F7"/>
-    <mergeCell ref="I5:M5"/>
-    <mergeCell ref="I21:M21"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="H21:K21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -2013,1114 +2015,1116 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AF17"/>
+  <dimension ref="B2:AE17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:Z17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.21875" customWidth="1"/>
-    <col min="2" max="2" width="4.77734375" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" customWidth="1"/>
     <col min="3" max="5" width="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3" customWidth="1"/>
     <col min="7" max="8" width="3" bestFit="1" customWidth="1"/>
     <col min="9" max="21" width="3" customWidth="1"/>
     <col min="22" max="22" width="8" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="3.88671875" customWidth="1"/>
-    <col min="26" max="26" width="4.77734375" customWidth="1"/>
-    <col min="27" max="27" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="3.85546875" customWidth="1"/>
+    <col min="25" max="25" width="4.7109375" customWidth="1"/>
+    <col min="26" max="26" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:32" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="B2" s="14" t="s">
+    <row r="2" spans="2:31" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B2" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="2:32" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="73" t="s">
+    <row r="5" spans="2:31" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
-      <c r="L5" s="73"/>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="73"/>
-      <c r="T5" s="73"/>
-      <c r="U5" s="73"/>
-      <c r="V5" s="73"/>
-      <c r="Y5" s="73" t="s">
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="65"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="65"/>
+      <c r="X5" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="Z5" s="73"/>
-      <c r="AA5" s="73"/>
-    </row>
-    <row r="6" spans="2:32" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="52" t="s">
+      <c r="Y5" s="65"/>
+      <c r="Z5" s="65"/>
+    </row>
+    <row r="6" spans="2:31" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="48"/>
-      <c r="R7" s="48"/>
-      <c r="S7" s="48"/>
-      <c r="T7" s="48"/>
-      <c r="U7" s="56"/>
-      <c r="V7" s="52" t="s">
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="73"/>
+      <c r="P7" s="73"/>
+      <c r="Q7" s="73"/>
+      <c r="R7" s="73"/>
+      <c r="S7" s="73"/>
+      <c r="T7" s="73"/>
+      <c r="U7" s="74"/>
+      <c r="V7" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="Y7" s="47" t="s">
+      <c r="X7" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="Z7" s="72" t="s">
+      <c r="Y7" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="AA7" s="49" t="s">
+      <c r="Z7" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="AB7" s="69"/>
-      <c r="AC7" s="69"/>
-      <c r="AD7" s="69"/>
-      <c r="AE7" s="69"/>
-      <c r="AF7" s="69"/>
-    </row>
-    <row r="8" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B8" s="53">
-        <v>1</v>
-      </c>
-      <c r="C8" s="62">
-        <f>IF(MOD(B8,2)=0,B8/2,3*B8+1)</f>
-        <v>4</v>
-      </c>
-      <c r="D8" s="63">
-        <f t="shared" ref="D8:U14" si="0">IF(MOD(C8,2)=0,C8/2,3*C8+1)</f>
-        <v>2</v>
-      </c>
-      <c r="E8" s="63">
+      <c r="AA7" s="61"/>
+      <c r="AB7" s="61"/>
+      <c r="AC7" s="61"/>
+      <c r="AD7" s="61"/>
+      <c r="AE7" s="61"/>
+    </row>
+    <row r="8" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B8" s="46">
+        <v>1</v>
+      </c>
+      <c r="C8" s="54">
+        <f t="shared" ref="C8:C17" si="0">IF(MOD(B8,2)=0,B8/2,3*B8+1)</f>
+        <v>4</v>
+      </c>
+      <c r="D8" s="55">
+        <f t="shared" ref="D8:U14" si="1">IF(MOD(C8,2)=0,C8/2,3*C8+1)</f>
+        <v>2</v>
+      </c>
+      <c r="E8" s="55">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F8" s="55">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G8" s="55">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H8" s="55">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I8" s="55">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J8" s="55">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K8" s="55">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L8" s="55">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="M8" s="55">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="N8" s="55">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O8" s="55">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="P8" s="55">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="Q8" s="55">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="R8" s="55">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="S8" s="55">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="T8" s="55">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="U8" s="56">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="V8" s="46">
+        <v>1</v>
+      </c>
+      <c r="X8" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y8" s="41">
+        <v>2</v>
+      </c>
+      <c r="Z8" s="63">
+        <f>MATCH(MAX($V$8:V8),$V$8:V8)</f>
+        <v>1</v>
+      </c>
+      <c r="AA8" s="61"/>
+      <c r="AB8" s="61"/>
+      <c r="AC8" s="61"/>
+      <c r="AD8" s="61"/>
+      <c r="AE8" s="61"/>
+    </row>
+    <row r="9" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B9" s="47">
+        <v>2</v>
+      </c>
+      <c r="C9" s="50">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F8" s="63">
+      <c r="D9" s="57">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="E9" s="57">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F9" s="57">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G9" s="57">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H9" s="57">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I9" s="57">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J9" s="57">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="K9" s="57">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L9" s="57">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M9" s="57">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="N9" s="57">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="O9" s="57">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P9" s="57">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="Q9" s="57">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="R9" s="57">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S9" s="57">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="T9" s="57">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="U9" s="58">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V9" s="47">
+        <f>MATCH(1,C9:U9,)+1</f>
+        <v>2</v>
+      </c>
+      <c r="X9" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y9" s="20">
+        <f>Y8+1</f>
+        <v>3</v>
+      </c>
+      <c r="Z9" s="21">
+        <f>MATCH(MAX($V$8:V9),$V$8:V9)</f>
+        <v>2</v>
+      </c>
+      <c r="AA9" s="61"/>
+      <c r="AB9" s="61"/>
+      <c r="AC9" s="61"/>
+      <c r="AD9" s="61"/>
+      <c r="AE9" s="61"/>
+    </row>
+    <row r="10" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B10" s="47">
+        <v>3</v>
+      </c>
+      <c r="C10" s="44">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="G8" s="63">
+        <v>10</v>
+      </c>
+      <c r="D10" s="20">
+        <f t="shared" ref="D10:D17" si="2">IF(MOD(C10,2)=0,C10/2,3*C10+1)</f>
+        <v>5</v>
+      </c>
+      <c r="E10" s="20">
+        <f t="shared" ref="E10:F10" si="3">IF(MOD(D10,2)=0,D10/2,3*D10+1)</f>
+        <v>16</v>
+      </c>
+      <c r="F10" s="20">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="G10" s="20">
+        <f t="shared" ref="G10:H10" si="4">IF(MOD(F10,2)=0,F10/2,3*F10+1)</f>
+        <v>4</v>
+      </c>
+      <c r="H10" s="20">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="I10" s="51">
+        <f t="shared" ref="I10" si="5">IF(MOD(H10,2)=0,H10/2,3*H10+1)</f>
+        <v>1</v>
+      </c>
+      <c r="J10" s="57">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="K10" s="57">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L10" s="57">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M10" s="57">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="N10" s="57">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="O10" s="57">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P10" s="57">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="Q10" s="57">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="R10" s="57">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="S10" s="57">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="T10" s="57">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="U10" s="58">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V10" s="47">
+        <f t="shared" ref="V10:V17" si="6">MATCH(1,C10:U10,)+1</f>
+        <v>8</v>
+      </c>
+      <c r="X10" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y10" s="20">
+        <f t="shared" ref="Y10:Y17" si="7">Y9+1</f>
+        <v>4</v>
+      </c>
+      <c r="Z10" s="21">
+        <f>MATCH(MAX($V$8:V10),$V$8:V10)</f>
+        <v>3</v>
+      </c>
+      <c r="AA10" s="61"/>
+      <c r="AB10" s="61"/>
+      <c r="AC10" s="61"/>
+      <c r="AD10" s="61"/>
+      <c r="AE10" s="61"/>
+    </row>
+    <row r="11" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B11" s="47">
+        <v>4</v>
+      </c>
+      <c r="C11" s="44">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="H8" s="63">
+      <c r="D11" s="51">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E11" s="57">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F11" s="57">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G11" s="57">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H11" s="57">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I11" s="57">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J11" s="57">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K11" s="57">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L11" s="57">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="M11" s="57">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N11" s="57">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="O11" s="57">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="P11" s="57">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q11" s="57">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="R11" s="57">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="S11" s="57">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T11" s="57">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="U11" s="58">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="V11" s="47">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="X11" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y11" s="20">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="Z11" s="21">
+        <f>MATCH(MAX($V$8:V11),$V$8:V11)</f>
+        <v>3</v>
+      </c>
+      <c r="AA11" s="61"/>
+      <c r="AB11" s="61"/>
+      <c r="AC11" s="61"/>
+      <c r="AD11" s="61"/>
+      <c r="AE11" s="61"/>
+    </row>
+    <row r="12" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B12" s="47">
+        <v>5</v>
+      </c>
+      <c r="C12" s="44">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="I8" s="63">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="J8" s="63">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="K8" s="63">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="L8" s="63">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="M8" s="63">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="N8" s="63">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="O8" s="63">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="P8" s="63">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="Q8" s="63">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="R8" s="63">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="S8" s="63">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="T8" s="63">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="U8" s="64">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="V8" s="53">
-        <v>1</v>
-      </c>
-      <c r="Y8" s="70" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z8" s="46">
-        <v>2</v>
-      </c>
-      <c r="AA8" s="71">
-        <f>MATCH(MAX($V$8:V8),$V$8:V8)</f>
-        <v>1</v>
-      </c>
-      <c r="AB8" s="69"/>
-      <c r="AC8" s="69"/>
-      <c r="AD8" s="69"/>
-      <c r="AE8" s="69"/>
-      <c r="AF8" s="69"/>
-    </row>
-    <row r="9" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B9" s="54">
-        <v>2</v>
-      </c>
-      <c r="C9" s="58">
-        <f>IF(MOD(B9,2)=0,B9/2,3*B9+1)</f>
-        <v>1</v>
-      </c>
-      <c r="D9" s="65">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="E9" s="65">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F9" s="65">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G9" s="65">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="H9" s="65">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="I9" s="65">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J9" s="65">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="K9" s="65">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="L9" s="65">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M9" s="65">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="N9" s="65">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="O9" s="65">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P9" s="65">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="Q9" s="65">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="R9" s="65">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="S9" s="65">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="T9" s="65">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="U9" s="66">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="V9" s="54">
-        <f>MATCH(1,C9:U9,)+1</f>
-        <v>2</v>
-      </c>
-      <c r="Y9" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z9" s="25">
-        <f>Z8+1</f>
-        <v>3</v>
-      </c>
-      <c r="AA9" s="26">
-        <f>MATCH(MAX($V$8:V9),$V$8:V9)</f>
-        <v>2</v>
-      </c>
-      <c r="AB9" s="69"/>
-      <c r="AC9" s="69"/>
-      <c r="AD9" s="69"/>
-      <c r="AE9" s="69"/>
-      <c r="AF9" s="69"/>
-    </row>
-    <row r="10" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B10" s="54">
-        <v>3</v>
-      </c>
-      <c r="C10" s="51">
-        <f>IF(MOD(B10,2)=0,B10/2,3*B10+1)</f>
-        <v>10</v>
-      </c>
-      <c r="D10" s="25">
-        <f t="shared" ref="D10:D17" si="1">IF(MOD(C10,2)=0,C10/2,3*C10+1)</f>
-        <v>5</v>
-      </c>
-      <c r="E10" s="25">
-        <f t="shared" ref="E10:F10" si="2">IF(MOD(D10,2)=0,D10/2,3*D10+1)</f>
         <v>16</v>
       </c>
-      <c r="F10" s="25">
+      <c r="D12" s="20">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="G10" s="25">
-        <f t="shared" ref="G10:H10" si="3">IF(MOD(F10,2)=0,F10/2,3*F10+1)</f>
-        <v>4</v>
-      </c>
-      <c r="H10" s="25">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="I10" s="59">
-        <f t="shared" ref="I10" si="4">IF(MOD(H10,2)=0,H10/2,3*H10+1)</f>
-        <v>1</v>
-      </c>
-      <c r="J10" s="65">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="K10" s="65">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="L10" s="65">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M10" s="65">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="N10" s="65">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="O10" s="65">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="P10" s="65">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="Q10" s="65">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="R10" s="65">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="S10" s="65">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="T10" s="65">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="U10" s="66">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="V10" s="54">
-        <f t="shared" ref="V10:V17" si="5">MATCH(1,C10:U10,)+1</f>
-        <v>8</v>
-      </c>
-      <c r="Y10" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z10" s="25">
-        <f t="shared" ref="Z10:Z17" si="6">Z9+1</f>
-        <v>4</v>
-      </c>
-      <c r="AA10" s="26">
-        <f>MATCH(MAX($V$8:V10),$V$8:V10)</f>
-        <v>3</v>
-      </c>
-      <c r="AB10" s="69"/>
-      <c r="AC10" s="69"/>
-      <c r="AD10" s="69"/>
-      <c r="AE10" s="69"/>
-      <c r="AF10" s="69"/>
-    </row>
-    <row r="11" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B11" s="54">
-        <v>4</v>
-      </c>
-      <c r="C11" s="51">
-        <f>IF(MOD(B11,2)=0,B11/2,3*B11+1)</f>
-        <v>2</v>
-      </c>
-      <c r="D11" s="59">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E11" s="65">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F11" s="65">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G11" s="65">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H11" s="65">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="I11" s="65">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J11" s="65">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K11" s="65">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="L11" s="65">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="M11" s="65">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N11" s="65">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="O11" s="65">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="P11" s="65">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Q11" s="65">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="R11" s="65">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="S11" s="65">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="T11" s="65">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="U11" s="66">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="V11" s="54">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="Y11" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z11" s="25">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="AA11" s="26">
-        <f>MATCH(MAX($V$8:V11),$V$8:V11)</f>
-        <v>3</v>
-      </c>
-      <c r="AB11" s="69"/>
-      <c r="AC11" s="69"/>
-      <c r="AD11" s="69"/>
-      <c r="AE11" s="69"/>
-      <c r="AF11" s="69"/>
-    </row>
-    <row r="12" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B12" s="54">
-        <v>5</v>
-      </c>
-      <c r="C12" s="51">
-        <f>IF(MOD(B12,2)=0,B12/2,3*B12+1)</f>
-        <v>16</v>
-      </c>
-      <c r="D12" s="25">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="E12" s="25">
-        <f t="shared" ref="E12:F12" si="7">IF(MOD(D12,2)=0,D12/2,3*D12+1)</f>
-        <v>4</v>
-      </c>
-      <c r="F12" s="25">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="G12" s="59">
-        <f t="shared" ref="G12" si="8">IF(MOD(F12,2)=0,F12/2,3*F12+1)</f>
-        <v>1</v>
-      </c>
-      <c r="H12" s="65">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="I12" s="65">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="J12" s="65">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="K12" s="65">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="L12" s="65">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="M12" s="65">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N12" s="65">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="O12" s="65">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="P12" s="65">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Q12" s="65">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="R12" s="65">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="S12" s="65">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="T12" s="65">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="U12" s="66">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="V12" s="54">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="Y12" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z12" s="25">
+      <c r="E12" s="20">
+        <f t="shared" ref="E12:F12" si="8">IF(MOD(D12,2)=0,D12/2,3*D12+1)</f>
+        <v>4</v>
+      </c>
+      <c r="F12" s="20">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="G12" s="51">
+        <f t="shared" ref="G12" si="9">IF(MOD(F12,2)=0,F12/2,3*F12+1)</f>
+        <v>1</v>
+      </c>
+      <c r="H12" s="57">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="I12" s="57">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="J12" s="57">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K12" s="57">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L12" s="57">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="M12" s="57">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N12" s="57">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="O12" s="57">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="P12" s="57">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q12" s="57">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="R12" s="57">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="S12" s="57">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T12" s="57">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="U12" s="58">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="V12" s="47">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="AA12" s="26">
+      <c r="X12" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y12" s="20">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="Z12" s="21">
         <f>MATCH(MAX($V$8:V12),$V$8:V12)</f>
         <v>3</v>
       </c>
-      <c r="AB12" s="69"/>
-      <c r="AC12" s="69"/>
-      <c r="AD12" s="69"/>
-      <c r="AE12" s="69"/>
-      <c r="AF12" s="69"/>
-    </row>
-    <row r="13" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B13" s="54">
+      <c r="AA12" s="61"/>
+      <c r="AB12" s="61"/>
+      <c r="AC12" s="61"/>
+      <c r="AD12" s="61"/>
+      <c r="AE12" s="61"/>
+    </row>
+    <row r="13" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B13" s="47">
         <v>6</v>
       </c>
-      <c r="C13" s="51">
-        <f>IF(MOD(B13,2)=0,B13/2,3*B13+1)</f>
+      <c r="C13" s="44">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D13" s="25">
-        <f t="shared" si="1"/>
+      <c r="D13" s="20">
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="E13" s="25">
-        <f t="shared" ref="E13:F13" si="9">IF(MOD(D13,2)=0,D13/2,3*D13+1)</f>
+      <c r="E13" s="20">
+        <f t="shared" ref="E13:F13" si="10">IF(MOD(D13,2)=0,D13/2,3*D13+1)</f>
         <v>5</v>
       </c>
-      <c r="F13" s="25">
-        <f t="shared" si="9"/>
+      <c r="F13" s="20">
+        <f t="shared" si="10"/>
         <v>16</v>
       </c>
-      <c r="G13" s="25">
-        <f t="shared" ref="G13:H13" si="10">IF(MOD(F13,2)=0,F13/2,3*F13+1)</f>
+      <c r="G13" s="20">
+        <f t="shared" ref="G13:H13" si="11">IF(MOD(F13,2)=0,F13/2,3*F13+1)</f>
         <v>8</v>
       </c>
-      <c r="H13" s="25">
-        <f t="shared" si="10"/>
-        <v>4</v>
-      </c>
-      <c r="I13" s="25">
-        <f t="shared" ref="I13:J13" si="11">IF(MOD(H13,2)=0,H13/2,3*H13+1)</f>
-        <v>2</v>
-      </c>
-      <c r="J13" s="59">
+      <c r="H13" s="20">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="K13" s="65">
+        <v>4</v>
+      </c>
+      <c r="I13" s="20">
+        <f t="shared" ref="I13:J13" si="12">IF(MOD(H13,2)=0,H13/2,3*H13+1)</f>
+        <v>2</v>
+      </c>
+      <c r="J13" s="51">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="K13" s="57">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L13" s="57">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="M13" s="57">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="N13" s="57">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="O13" s="57">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="P13" s="57">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Q13" s="57">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="R13" s="57">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="S13" s="57">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="T13" s="57">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="U13" s="58">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="V13" s="47">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="X13" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y13" s="20">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="Z13" s="21">
+        <f>MATCH(MAX($V$8:V13),$V$8:V13)</f>
+        <v>6</v>
+      </c>
+      <c r="AA13" s="61"/>
+      <c r="AB13" s="61"/>
+      <c r="AC13" s="61"/>
+      <c r="AD13" s="61"/>
+      <c r="AE13" s="61"/>
+    </row>
+    <row r="14" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B14" s="47">
+        <v>7</v>
+      </c>
+      <c r="C14" s="44">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="L13" s="65">
+        <v>22</v>
+      </c>
+      <c r="D14" s="20">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="E14" s="20">
+        <f t="shared" ref="E14:T15" si="13">IF(MOD(D14,2)=0,D14/2,3*D14+1)</f>
+        <v>34</v>
+      </c>
+      <c r="F14" s="20">
+        <f t="shared" si="13"/>
+        <v>17</v>
+      </c>
+      <c r="G14" s="20">
+        <f t="shared" ref="G14:H14" si="14">IF(MOD(F14,2)=0,F14/2,3*F14+1)</f>
+        <v>52</v>
+      </c>
+      <c r="H14" s="20">
+        <f t="shared" si="14"/>
+        <v>26</v>
+      </c>
+      <c r="I14" s="20">
+        <f t="shared" ref="I14:J14" si="15">IF(MOD(H14,2)=0,H14/2,3*H14+1)</f>
+        <v>13</v>
+      </c>
+      <c r="J14" s="20">
+        <f t="shared" si="15"/>
+        <v>40</v>
+      </c>
+      <c r="K14" s="20">
+        <f t="shared" ref="K14:R14" si="16">IF(MOD(J14,2)=0,J14/2,3*J14+1)</f>
+        <v>20</v>
+      </c>
+      <c r="L14" s="20">
+        <f t="shared" si="16"/>
+        <v>10</v>
+      </c>
+      <c r="M14" s="20">
+        <f t="shared" si="16"/>
+        <v>5</v>
+      </c>
+      <c r="N14" s="20">
+        <f t="shared" si="16"/>
+        <v>16</v>
+      </c>
+      <c r="O14" s="20">
+        <f t="shared" si="16"/>
+        <v>8</v>
+      </c>
+      <c r="P14" s="20">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="Q14" s="20">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="R14" s="51">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="S14" s="57">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="T14" s="57">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="U14" s="58">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="V14" s="47">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="X14" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y14" s="20">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="Z14" s="21">
+        <f>MATCH(MAX($V$8:V14),$V$8:V14)</f>
+        <v>7</v>
+      </c>
+      <c r="AA14" s="61"/>
+      <c r="AB14" s="61"/>
+      <c r="AC14" s="61"/>
+      <c r="AD14" s="61"/>
+      <c r="AE14" s="61"/>
+    </row>
+    <row r="15" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B15" s="47">
+        <v>8</v>
+      </c>
+      <c r="C15" s="44">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="M13" s="65">
+        <v>4</v>
+      </c>
+      <c r="D15" s="20">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="E15" s="51">
+        <f t="shared" ref="E15" si="17">IF(MOD(D15,2)=0,D15/2,3*D15+1)</f>
+        <v>1</v>
+      </c>
+      <c r="F15" s="57">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="G15" s="57">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="H15" s="57">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="I15" s="57">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="J15" s="57">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="K15" s="57">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="L15" s="57">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="M15" s="57">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="N15" s="57">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="O15" s="57">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="P15" s="57">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="Q15" s="57">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="R15" s="57">
+        <f t="shared" si="13"/>
+        <v>4</v>
+      </c>
+      <c r="S15" s="57">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="T15" s="57">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="U15" s="58">
+        <f t="shared" ref="U15" si="18">IF(MOD(T15,2)=0,T15/2,3*T15+1)</f>
+        <v>4</v>
+      </c>
+      <c r="V15" s="47">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="X15" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y15" s="20">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="Z15" s="21">
+        <f>MATCH(MAX($V$8:V15),$V$8:V15)</f>
+        <v>7</v>
+      </c>
+      <c r="AA15" s="61"/>
+      <c r="AB15" s="61"/>
+      <c r="AC15" s="61"/>
+      <c r="AD15" s="61"/>
+      <c r="AE15" s="61"/>
+    </row>
+    <row r="16" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B16" s="47">
+        <v>9</v>
+      </c>
+      <c r="C16" s="44">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="N13" s="65">
+        <v>28</v>
+      </c>
+      <c r="D16" s="20">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="E16" s="20">
+        <f t="shared" ref="E16:F16" si="19">IF(MOD(D16,2)=0,D16/2,3*D16+1)</f>
+        <v>7</v>
+      </c>
+      <c r="F16" s="20">
+        <f t="shared" si="19"/>
+        <v>22</v>
+      </c>
+      <c r="G16" s="20">
+        <f t="shared" ref="G16:H16" si="20">IF(MOD(F16,2)=0,F16/2,3*F16+1)</f>
+        <v>11</v>
+      </c>
+      <c r="H16" s="20">
+        <f t="shared" si="20"/>
+        <v>34</v>
+      </c>
+      <c r="I16" s="20">
+        <f t="shared" ref="I16:U17" si="21">IF(MOD(H16,2)=0,H16/2,3*H16+1)</f>
+        <v>17</v>
+      </c>
+      <c r="J16" s="20">
+        <f t="shared" ref="J16:K16" si="22">IF(MOD(I16,2)=0,I16/2,3*I16+1)</f>
+        <v>52</v>
+      </c>
+      <c r="K16" s="20">
+        <f t="shared" si="22"/>
+        <v>26</v>
+      </c>
+      <c r="L16" s="20">
+        <f t="shared" ref="L16:U16" si="23">IF(MOD(K16,2)=0,K16/2,3*K16+1)</f>
+        <v>13</v>
+      </c>
+      <c r="M16" s="20">
+        <f t="shared" si="23"/>
+        <v>40</v>
+      </c>
+      <c r="N16" s="20">
+        <f t="shared" si="23"/>
+        <v>20</v>
+      </c>
+      <c r="O16" s="20">
+        <f t="shared" si="23"/>
+        <v>10</v>
+      </c>
+      <c r="P16" s="20">
+        <f t="shared" si="23"/>
+        <v>5</v>
+      </c>
+      <c r="Q16" s="20">
+        <f t="shared" si="23"/>
+        <v>16</v>
+      </c>
+      <c r="R16" s="20">
+        <f t="shared" si="23"/>
+        <v>8</v>
+      </c>
+      <c r="S16" s="20">
+        <f t="shared" si="23"/>
+        <v>4</v>
+      </c>
+      <c r="T16" s="20">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+      <c r="U16" s="52">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="V16" s="47">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="X16" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y16" s="20">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="Z16" s="21">
+        <f>MATCH(MAX($V$8:V16),$V$8:V16)</f>
+        <v>9</v>
+      </c>
+      <c r="AA16" s="61"/>
+      <c r="AB16" s="61"/>
+      <c r="AC16" s="61"/>
+      <c r="AD16" s="61"/>
+      <c r="AE16" s="61"/>
+    </row>
+    <row r="17" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="48">
+        <v>10</v>
+      </c>
+      <c r="C17" s="49">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="O13" s="65">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="P13" s="65">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Q13" s="65">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="R13" s="65">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="S13" s="65">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="T13" s="65">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="U13" s="66">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="V13" s="54">
-        <f t="shared" si="5"/>
-        <v>9</v>
-      </c>
-      <c r="Y13" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z13" s="25">
+        <v>5</v>
+      </c>
+      <c r="D17" s="23">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="E17" s="23">
+        <f t="shared" ref="E17:F17" si="24">IF(MOD(D17,2)=0,D17/2,3*D17+1)</f>
+        <v>8</v>
+      </c>
+      <c r="F17" s="23">
+        <f t="shared" si="24"/>
+        <v>4</v>
+      </c>
+      <c r="G17" s="23">
+        <f t="shared" ref="G17:H17" si="25">IF(MOD(F17,2)=0,F17/2,3*F17+1)</f>
+        <v>2</v>
+      </c>
+      <c r="H17" s="53">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="I17" s="59">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="J17" s="59">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="K17" s="59">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="L17" s="59">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="M17" s="59">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="N17" s="59">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="O17" s="59">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="P17" s="59">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="Q17" s="59">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="R17" s="59">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="S17" s="59">
+        <f t="shared" si="21"/>
+        <v>2</v>
+      </c>
+      <c r="T17" s="59">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="U17" s="60">
+        <f t="shared" si="21"/>
+        <v>4</v>
+      </c>
+      <c r="V17" s="48">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="AA13" s="26">
-        <f>MATCH(MAX($V$8:V13),$V$8:V13)</f>
-        <v>6</v>
-      </c>
-      <c r="AB13" s="69"/>
-      <c r="AC13" s="69"/>
-      <c r="AD13" s="69"/>
-      <c r="AE13" s="69"/>
-      <c r="AF13" s="69"/>
-    </row>
-    <row r="14" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B14" s="54">
-        <v>7</v>
-      </c>
-      <c r="C14" s="51">
-        <f>IF(MOD(B14,2)=0,B14/2,3*B14+1)</f>
-        <v>22</v>
-      </c>
-      <c r="D14" s="25">
-        <f t="shared" si="1"/>
+      <c r="X17" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y17" s="23">
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
-      <c r="E14" s="25">
-        <f t="shared" ref="E14:T15" si="12">IF(MOD(D14,2)=0,D14/2,3*D14+1)</f>
-        <v>34</v>
-      </c>
-      <c r="F14" s="25">
-        <f t="shared" si="12"/>
-        <v>17</v>
-      </c>
-      <c r="G14" s="25">
-        <f t="shared" ref="G14:H14" si="13">IF(MOD(F14,2)=0,F14/2,3*F14+1)</f>
-        <v>52</v>
-      </c>
-      <c r="H14" s="25">
-        <f t="shared" si="13"/>
-        <v>26</v>
-      </c>
-      <c r="I14" s="25">
-        <f t="shared" ref="I14:J14" si="14">IF(MOD(H14,2)=0,H14/2,3*H14+1)</f>
-        <v>13</v>
-      </c>
-      <c r="J14" s="25">
-        <f t="shared" si="14"/>
-        <v>40</v>
-      </c>
-      <c r="K14" s="25">
-        <f t="shared" ref="K14:R14" si="15">IF(MOD(J14,2)=0,J14/2,3*J14+1)</f>
-        <v>20</v>
-      </c>
-      <c r="L14" s="25">
-        <f t="shared" si="15"/>
-        <v>10</v>
-      </c>
-      <c r="M14" s="25">
-        <f t="shared" si="15"/>
-        <v>5</v>
-      </c>
-      <c r="N14" s="25">
-        <f t="shared" si="15"/>
-        <v>16</v>
-      </c>
-      <c r="O14" s="25">
-        <f t="shared" si="15"/>
-        <v>8</v>
-      </c>
-      <c r="P14" s="25">
-        <f t="shared" si="15"/>
-        <v>4</v>
-      </c>
-      <c r="Q14" s="25">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="R14" s="59">
-        <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="S14" s="65">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="T14" s="65">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="U14" s="66">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="V14" s="54">
-        <f t="shared" si="5"/>
-        <v>17</v>
-      </c>
-      <c r="Y14" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z14" s="25">
-        <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="AA14" s="26">
-        <f>MATCH(MAX($V$8:V14),$V$8:V14)</f>
-        <v>7</v>
-      </c>
-      <c r="AB14" s="69"/>
-      <c r="AC14" s="69"/>
-      <c r="AD14" s="69"/>
-      <c r="AE14" s="69"/>
-      <c r="AF14" s="69"/>
-    </row>
-    <row r="15" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B15" s="54">
-        <v>8</v>
-      </c>
-      <c r="C15" s="51">
-        <f>IF(MOD(B15,2)=0,B15/2,3*B15+1)</f>
-        <v>4</v>
-      </c>
-      <c r="D15" s="25">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E15" s="59">
-        <f t="shared" ref="E15" si="16">IF(MOD(D15,2)=0,D15/2,3*D15+1)</f>
-        <v>1</v>
-      </c>
-      <c r="F15" s="65">
-        <f t="shared" si="12"/>
-        <v>4</v>
-      </c>
-      <c r="G15" s="65">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="H15" s="65">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="I15" s="65">
-        <f t="shared" si="12"/>
-        <v>4</v>
-      </c>
-      <c r="J15" s="65">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="K15" s="65">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="L15" s="65">
-        <f t="shared" si="12"/>
-        <v>4</v>
-      </c>
-      <c r="M15" s="65">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="N15" s="65">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="O15" s="65">
-        <f t="shared" si="12"/>
-        <v>4</v>
-      </c>
-      <c r="P15" s="65">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="Q15" s="65">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="R15" s="65">
-        <f t="shared" si="12"/>
-        <v>4</v>
-      </c>
-      <c r="S15" s="65">
-        <f t="shared" si="12"/>
-        <v>2</v>
-      </c>
-      <c r="T15" s="65">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="U15" s="66">
-        <f t="shared" ref="U15" si="17">IF(MOD(T15,2)=0,T15/2,3*T15+1)</f>
-        <v>4</v>
-      </c>
-      <c r="V15" s="54">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="Y15" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z15" s="25">
-        <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="AA15" s="26">
-        <f>MATCH(MAX($V$8:V15),$V$8:V15)</f>
-        <v>7</v>
-      </c>
-      <c r="AB15" s="69"/>
-      <c r="AC15" s="69"/>
-      <c r="AD15" s="69"/>
-      <c r="AE15" s="69"/>
-      <c r="AF15" s="69"/>
-    </row>
-    <row r="16" spans="2:32" x14ac:dyDescent="0.3">
-      <c r="B16" s="54">
-        <v>9</v>
-      </c>
-      <c r="C16" s="51">
-        <f>IF(MOD(B16,2)=0,B16/2,3*B16+1)</f>
-        <v>28</v>
-      </c>
-      <c r="D16" s="25">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="E16" s="25">
-        <f t="shared" ref="E16:F16" si="18">IF(MOD(D16,2)=0,D16/2,3*D16+1)</f>
-        <v>7</v>
-      </c>
-      <c r="F16" s="25">
-        <f t="shared" si="18"/>
-        <v>22</v>
-      </c>
-      <c r="G16" s="25">
-        <f t="shared" ref="G16:H16" si="19">IF(MOD(F16,2)=0,F16/2,3*F16+1)</f>
-        <v>11</v>
-      </c>
-      <c r="H16" s="25">
-        <f t="shared" si="19"/>
-        <v>34</v>
-      </c>
-      <c r="I16" s="25">
-        <f t="shared" ref="I16:U17" si="20">IF(MOD(H16,2)=0,H16/2,3*H16+1)</f>
-        <v>17</v>
-      </c>
-      <c r="J16" s="25">
-        <f t="shared" ref="J16:K16" si="21">IF(MOD(I16,2)=0,I16/2,3*I16+1)</f>
-        <v>52</v>
-      </c>
-      <c r="K16" s="25">
-        <f t="shared" si="21"/>
-        <v>26</v>
-      </c>
-      <c r="L16" s="25">
-        <f t="shared" ref="L16:U16" si="22">IF(MOD(K16,2)=0,K16/2,3*K16+1)</f>
-        <v>13</v>
-      </c>
-      <c r="M16" s="25">
-        <f t="shared" si="22"/>
-        <v>40</v>
-      </c>
-      <c r="N16" s="25">
-        <f t="shared" si="22"/>
-        <v>20</v>
-      </c>
-      <c r="O16" s="25">
-        <f t="shared" si="22"/>
-        <v>10</v>
-      </c>
-      <c r="P16" s="25">
-        <f t="shared" si="22"/>
-        <v>5</v>
-      </c>
-      <c r="Q16" s="25">
-        <f t="shared" si="22"/>
-        <v>16</v>
-      </c>
-      <c r="R16" s="25">
-        <f t="shared" si="22"/>
-        <v>8</v>
-      </c>
-      <c r="S16" s="25">
-        <f t="shared" si="22"/>
-        <v>4</v>
-      </c>
-      <c r="T16" s="25">
-        <f t="shared" si="22"/>
-        <v>2</v>
-      </c>
-      <c r="U16" s="60">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="V16" s="54">
-        <f t="shared" si="5"/>
-        <v>20</v>
-      </c>
-      <c r="Y16" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z16" s="25">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="AA16" s="26">
-        <f>MATCH(MAX($V$8:V16),$V$8:V16)</f>
-        <v>9</v>
-      </c>
-      <c r="AB16" s="69"/>
-      <c r="AC16" s="69"/>
-      <c r="AD16" s="69"/>
-      <c r="AE16" s="69"/>
-      <c r="AF16" s="69"/>
-    </row>
-    <row r="17" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="55">
-        <v>10</v>
-      </c>
-      <c r="C17" s="57">
-        <f>IF(MOD(B17,2)=0,B17/2,3*B17+1)</f>
-        <v>5</v>
-      </c>
-      <c r="D17" s="28">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="E17" s="28">
-        <f t="shared" ref="E17:F17" si="23">IF(MOD(D17,2)=0,D17/2,3*D17+1)</f>
-        <v>8</v>
-      </c>
-      <c r="F17" s="28">
-        <f t="shared" si="23"/>
-        <v>4</v>
-      </c>
-      <c r="G17" s="28">
-        <f t="shared" ref="G17:H17" si="24">IF(MOD(F17,2)=0,F17/2,3*F17+1)</f>
-        <v>2</v>
-      </c>
-      <c r="H17" s="61">
-        <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="I17" s="67">
-        <f t="shared" si="20"/>
-        <v>4</v>
-      </c>
-      <c r="J17" s="67">
-        <f t="shared" si="20"/>
-        <v>2</v>
-      </c>
-      <c r="K17" s="67">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="L17" s="67">
-        <f t="shared" si="20"/>
-        <v>4</v>
-      </c>
-      <c r="M17" s="67">
-        <f t="shared" si="20"/>
-        <v>2</v>
-      </c>
-      <c r="N17" s="67">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="O17" s="67">
-        <f t="shared" si="20"/>
-        <v>4</v>
-      </c>
-      <c r="P17" s="67">
-        <f t="shared" si="20"/>
-        <v>2</v>
-      </c>
-      <c r="Q17" s="67">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="R17" s="67">
-        <f t="shared" si="20"/>
-        <v>4</v>
-      </c>
-      <c r="S17" s="67">
-        <f t="shared" si="20"/>
-        <v>2</v>
-      </c>
-      <c r="T17" s="67">
-        <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-      <c r="U17" s="68">
-        <f t="shared" si="20"/>
-        <v>4</v>
-      </c>
-      <c r="V17" s="55">
-        <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="Y17" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z17" s="28">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-      <c r="AA17" s="29">
+      <c r="Z17" s="24">
         <f>MATCH(MAX($V$8:V17),$V$8:V17)</f>
         <v>9</v>
       </c>
-      <c r="AB17" s="69"/>
-      <c r="AC17" s="69"/>
-      <c r="AD17" s="69"/>
-      <c r="AE17" s="69"/>
-      <c r="AF17" s="69"/>
+      <c r="AA17" s="61"/>
+      <c r="AB17" s="61"/>
+      <c r="AC17" s="61"/>
+      <c r="AD17" s="61"/>
+      <c r="AE17" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="X5:Z5"/>
     <mergeCell ref="B5:V5"/>
     <mergeCell ref="C7:U7"/>
   </mergeCells>
